--- a/Data/EC/NIT-9005762873.xlsx
+++ b/Data/EC/NIT-9005762873.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD5C174D-A573-463F-BFDA-4D57F085C6EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F9F8C13-F1D6-4636-9286-2FED7C38E23A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A0A5E365-93A8-4F89-9DA6-D7920DE62BB9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C56C5EA2-2691-4FE7-A340-3CF87482FFA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,193 +65,193 @@
     <t>CC</t>
   </si>
   <si>
+    <t>73136886</t>
+  </si>
+  <si>
+    <t>VICTOR MANUEL MENDOZA HERNANDEZ</t>
+  </si>
+  <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>73142593</t>
+  </si>
+  <si>
+    <t>MOISES CAMACHO MERLANO</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
     <t>1100249273</t>
   </si>
   <si>
     <t>ELYS CAROLINA VILORIA MEZA</t>
   </si>
   <si>
+    <t>1801</t>
+  </si>
+  <si>
     <t>1802</t>
   </si>
   <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>73142593</t>
-  </si>
-  <si>
-    <t>MOISES CAMACHO MERLANO</t>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
   </si>
   <si>
     <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>73136886</t>
-  </si>
-  <si>
-    <t>VICTOR MANUEL MENDOZA HERNANDEZ</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1607</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -350,7 +350,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -363,9 +365,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -565,23 +565,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -609,10 +609,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -665,7 +665,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2563DE63-9877-2C42-2C38-08D78F0911A5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C223E490-ECA2-DCC7-B022-0A518A23E819}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1016,7 +1016,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A2DCA55-7724-4941-BFB1-F15C6CCA04CC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{747F25AA-D7D9-41EE-8188-53FFE9996E52}">
   <dimension ref="B2:J121"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1194,10 +1194,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>38781</v>
+        <v>30000</v>
       </c>
       <c r="G16" s="18">
-        <v>1710930</v>
+        <v>781242</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1217,10 +1217,10 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>68437</v>
+        <v>30000</v>
       </c>
       <c r="G17" s="18">
-        <v>1710930</v>
+        <v>781242</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1231,19 +1231,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>15</v>
-      </c>
       <c r="F18" s="18">
-        <v>65626</v>
+        <v>30000</v>
       </c>
       <c r="G18" s="18">
-        <v>2140000</v>
+        <v>781242</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1254,19 +1254,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="16" t="s">
-        <v>16</v>
-      </c>
       <c r="F19" s="18">
-        <v>85600</v>
+        <v>30000</v>
       </c>
       <c r="G19" s="18">
-        <v>2140000</v>
+        <v>781242</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1277,19 +1277,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>85600</v>
+        <v>30000</v>
       </c>
       <c r="G20" s="18">
-        <v>2140000</v>
+        <v>781242</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1300,19 +1300,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>85600</v>
+        <v>30000</v>
       </c>
       <c r="G21" s="18">
-        <v>2140000</v>
+        <v>781242</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1323,19 +1323,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>85600</v>
+        <v>30000</v>
       </c>
       <c r="G22" s="18">
-        <v>2140000</v>
+        <v>781242</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1346,19 +1346,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>85600</v>
+        <v>30000</v>
       </c>
       <c r="G23" s="18">
-        <v>2140000</v>
+        <v>781242</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1369,19 +1369,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
-        <v>85600</v>
+        <v>30000</v>
       </c>
       <c r="G24" s="18">
-        <v>2140000</v>
+        <v>781242</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1392,19 +1392,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
-        <v>85600</v>
+        <v>30000</v>
       </c>
       <c r="G25" s="18">
-        <v>2140000</v>
+        <v>781242</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1415,19 +1415,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F26" s="18">
-        <v>85600</v>
+        <v>30000</v>
       </c>
       <c r="G26" s="18">
-        <v>2140000</v>
+        <v>781242</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1438,10 +1438,10 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E27" s="16" t="s">
         <v>24</v>
@@ -1461,19 +1461,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F28" s="18">
-        <v>85600</v>
+        <v>30000</v>
       </c>
       <c r="G28" s="18">
-        <v>2140000</v>
+        <v>781242</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1484,13 +1484,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F29" s="18">
         <v>85600</v>
@@ -1507,19 +1507,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F30" s="18">
-        <v>85600</v>
+        <v>30000</v>
       </c>
       <c r="G30" s="18">
-        <v>2140000</v>
+        <v>781242</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1530,19 +1530,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F31" s="18">
-        <v>85600</v>
+        <v>30000</v>
       </c>
       <c r="G31" s="18">
-        <v>2140000</v>
+        <v>781242</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1553,19 +1553,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F32" s="18">
-        <v>85600</v>
+        <v>30000</v>
       </c>
       <c r="G32" s="18">
-        <v>2140000</v>
+        <v>781242</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1576,19 +1576,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F33" s="18">
-        <v>85600</v>
+        <v>30000</v>
       </c>
       <c r="G33" s="18">
-        <v>2140000</v>
+        <v>781242</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1599,19 +1599,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F34" s="18">
-        <v>85600</v>
+        <v>30000</v>
       </c>
       <c r="G34" s="18">
-        <v>2140000</v>
+        <v>781242</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1622,19 +1622,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F35" s="18">
-        <v>85600</v>
+        <v>30000</v>
       </c>
       <c r="G35" s="18">
-        <v>2140000</v>
+        <v>781242</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1645,19 +1645,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E36" s="16" t="s">
         <v>33</v>
       </c>
       <c r="F36" s="18">
-        <v>85600</v>
+        <v>68437</v>
       </c>
       <c r="G36" s="18">
-        <v>2140000</v>
+        <v>1710930</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1668,13 +1668,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F37" s="18">
         <v>85600</v>
@@ -1691,19 +1691,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F38" s="18">
-        <v>85600</v>
+        <v>30000</v>
       </c>
       <c r="G38" s="18">
-        <v>2140000</v>
+        <v>781242</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1714,19 +1714,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F39" s="18">
-        <v>85600</v>
+        <v>38781</v>
       </c>
       <c r="G39" s="18">
-        <v>2140000</v>
+        <v>1710930</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1737,13 +1737,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F40" s="18">
         <v>85600</v>
@@ -1760,19 +1760,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F41" s="18">
-        <v>85600</v>
+        <v>30000</v>
       </c>
       <c r="G41" s="18">
-        <v>2140000</v>
+        <v>781242</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1783,13 +1783,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F42" s="18">
         <v>85600</v>
@@ -1806,19 +1806,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F43" s="18">
-        <v>85600</v>
+        <v>30000</v>
       </c>
       <c r="G43" s="18">
-        <v>2140000</v>
+        <v>781242</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1829,13 +1829,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F44" s="18">
         <v>85600</v>
@@ -1852,19 +1852,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F45" s="18">
-        <v>85600</v>
+        <v>30000</v>
       </c>
       <c r="G45" s="18">
-        <v>2140000</v>
+        <v>781242</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1875,13 +1875,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F46" s="18">
         <v>85600</v>
@@ -1898,19 +1898,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F47" s="18">
-        <v>85600</v>
+        <v>30000</v>
       </c>
       <c r="G47" s="18">
-        <v>2140000</v>
+        <v>781242</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1921,13 +1921,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F48" s="18">
         <v>85600</v>
@@ -1944,19 +1944,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F49" s="18">
-        <v>85600</v>
+        <v>30000</v>
       </c>
       <c r="G49" s="18">
-        <v>2140000</v>
+        <v>781242</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -1967,13 +1967,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F50" s="18">
         <v>85600</v>
@@ -1990,19 +1990,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F51" s="18">
-        <v>85600</v>
+        <v>30000</v>
       </c>
       <c r="G51" s="18">
-        <v>2140000</v>
+        <v>781242</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -2013,13 +2013,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F52" s="18">
         <v>85600</v>
@@ -2036,19 +2036,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F53" s="18">
-        <v>85600</v>
+        <v>30000</v>
       </c>
       <c r="G53" s="18">
-        <v>2140000</v>
+        <v>781242</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2059,13 +2059,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F54" s="18">
         <v>85600</v>
@@ -2082,19 +2082,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="F55" s="18">
-        <v>85600</v>
+        <v>31249</v>
       </c>
       <c r="G55" s="18">
-        <v>2140000</v>
+        <v>781242</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2105,13 +2105,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="F56" s="18">
         <v>85600</v>
@@ -2128,19 +2128,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F57" s="18">
-        <v>85600</v>
+        <v>31249</v>
       </c>
       <c r="G57" s="18">
-        <v>2140000</v>
+        <v>781242</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2151,13 +2151,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="F58" s="18">
         <v>85600</v>
@@ -2174,16 +2174,16 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="F59" s="18">
-        <v>23958</v>
+        <v>31249</v>
       </c>
       <c r="G59" s="18">
         <v>781242</v>
@@ -2197,19 +2197,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="F60" s="18">
-        <v>31249</v>
+        <v>85600</v>
       </c>
       <c r="G60" s="18">
-        <v>781242</v>
+        <v>2140000</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2220,13 +2220,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="F61" s="18">
         <v>31249</v>
@@ -2243,19 +2243,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="F62" s="18">
-        <v>31249</v>
+        <v>85600</v>
       </c>
       <c r="G62" s="18">
-        <v>781242</v>
+        <v>2140000</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2266,13 +2266,13 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="F63" s="18">
         <v>31249</v>
@@ -2289,19 +2289,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="F64" s="18">
-        <v>31249</v>
+        <v>85600</v>
       </c>
       <c r="G64" s="18">
-        <v>781242</v>
+        <v>2140000</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2312,13 +2312,13 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="F65" s="18">
         <v>31249</v>
@@ -2335,19 +2335,19 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="F66" s="18">
-        <v>31249</v>
+        <v>85600</v>
       </c>
       <c r="G66" s="18">
-        <v>781242</v>
+        <v>2140000</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2358,13 +2358,13 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="F67" s="18">
         <v>31249</v>
@@ -2381,19 +2381,19 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="F68" s="18">
-        <v>31249</v>
+        <v>85600</v>
       </c>
       <c r="G68" s="18">
-        <v>781242</v>
+        <v>2140000</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2404,13 +2404,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="F69" s="18">
         <v>31249</v>
@@ -2427,19 +2427,19 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="F70" s="18">
-        <v>31249</v>
+        <v>85600</v>
       </c>
       <c r="G70" s="18">
-        <v>781242</v>
+        <v>2140000</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2450,13 +2450,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="F71" s="18">
         <v>31249</v>
@@ -2473,19 +2473,19 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="F72" s="18">
-        <v>31249</v>
+        <v>85600</v>
       </c>
       <c r="G72" s="18">
-        <v>781242</v>
+        <v>2140000</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2496,13 +2496,13 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="F73" s="18">
         <v>31249</v>
@@ -2519,19 +2519,19 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="F74" s="18">
-        <v>31249</v>
+        <v>85600</v>
       </c>
       <c r="G74" s="18">
-        <v>781242</v>
+        <v>2140000</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2542,13 +2542,13 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="F75" s="18">
         <v>31249</v>
@@ -2565,19 +2565,19 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="F76" s="18">
-        <v>31249</v>
+        <v>85600</v>
       </c>
       <c r="G76" s="18">
-        <v>781242</v>
+        <v>2140000</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -2588,13 +2588,13 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="F77" s="18">
         <v>31249</v>
@@ -2611,19 +2611,19 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="F78" s="18">
-        <v>31249</v>
+        <v>85600</v>
       </c>
       <c r="G78" s="18">
-        <v>781242</v>
+        <v>2140000</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
@@ -2634,13 +2634,13 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="F79" s="18">
         <v>31249</v>
@@ -2657,19 +2657,19 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D80" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E80" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="D80" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E80" s="16" t="s">
-        <v>36</v>
-      </c>
       <c r="F80" s="18">
-        <v>31249</v>
+        <v>85600</v>
       </c>
       <c r="G80" s="18">
-        <v>781242</v>
+        <v>2140000</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -2680,13 +2680,13 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E81" s="16" t="s">
         <v>54</v>
-      </c>
-      <c r="D81" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E81" s="16" t="s">
-        <v>37</v>
       </c>
       <c r="F81" s="18">
         <v>31249</v>
@@ -2703,19 +2703,19 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="D82" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E82" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="E82" s="16" t="s">
-        <v>38</v>
-      </c>
       <c r="F82" s="18">
-        <v>31249</v>
+        <v>85600</v>
       </c>
       <c r="G82" s="18">
-        <v>781242</v>
+        <v>2140000</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -2726,13 +2726,13 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D83" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E83" s="16" t="s">
         <v>55</v>
-      </c>
-      <c r="E83" s="16" t="s">
-        <v>39</v>
       </c>
       <c r="F83" s="18">
         <v>31249</v>
@@ -2749,19 +2749,19 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="F84" s="18">
-        <v>31249</v>
+        <v>85600</v>
       </c>
       <c r="G84" s="18">
-        <v>781242</v>
+        <v>2140000</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -2772,13 +2772,13 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="F85" s="18">
         <v>31249</v>
@@ -2795,19 +2795,19 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="F86" s="18">
-        <v>31249</v>
+        <v>85600</v>
       </c>
       <c r="G86" s="18">
-        <v>781242</v>
+        <v>2140000</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -2818,13 +2818,13 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="F87" s="18">
         <v>31249</v>
@@ -2841,19 +2841,19 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="F88" s="18">
-        <v>31249</v>
+        <v>85600</v>
       </c>
       <c r="G88" s="18">
-        <v>781242</v>
+        <v>2140000</v>
       </c>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
@@ -2864,13 +2864,13 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="F89" s="18">
         <v>31249</v>
@@ -2887,19 +2887,19 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="F90" s="18">
-        <v>30000</v>
+        <v>85600</v>
       </c>
       <c r="G90" s="18">
-        <v>781242</v>
+        <v>2140000</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
@@ -2910,16 +2910,16 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="F91" s="18">
-        <v>30000</v>
+        <v>31249</v>
       </c>
       <c r="G91" s="18">
         <v>781242</v>
@@ -2933,19 +2933,19 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="F92" s="18">
-        <v>30000</v>
+        <v>85600</v>
       </c>
       <c r="G92" s="18">
-        <v>781242</v>
+        <v>2140000</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
@@ -2956,16 +2956,16 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="F93" s="18">
-        <v>30000</v>
+        <v>31249</v>
       </c>
       <c r="G93" s="18">
         <v>781242</v>
@@ -2979,19 +2979,19 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="F94" s="18">
-        <v>30000</v>
+        <v>85600</v>
       </c>
       <c r="G94" s="18">
-        <v>781242</v>
+        <v>2140000</v>
       </c>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
@@ -3002,16 +3002,16 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="F95" s="18">
-        <v>30000</v>
+        <v>31249</v>
       </c>
       <c r="G95" s="18">
         <v>781242</v>
@@ -3025,19 +3025,19 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="F96" s="18">
-        <v>30000</v>
+        <v>85600</v>
       </c>
       <c r="G96" s="18">
-        <v>781242</v>
+        <v>2140000</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
@@ -3048,16 +3048,16 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="F97" s="18">
-        <v>30000</v>
+        <v>31249</v>
       </c>
       <c r="G97" s="18">
         <v>781242</v>
@@ -3071,19 +3071,19 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="F98" s="18">
-        <v>30000</v>
+        <v>85600</v>
       </c>
       <c r="G98" s="18">
-        <v>781242</v>
+        <v>2140000</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
@@ -3094,16 +3094,16 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F99" s="18">
-        <v>30000</v>
+        <v>31249</v>
       </c>
       <c r="G99" s="18">
         <v>781242</v>
@@ -3117,19 +3117,19 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F100" s="18">
-        <v>30000</v>
+        <v>85600</v>
       </c>
       <c r="G100" s="18">
-        <v>781242</v>
+        <v>2140000</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
@@ -3140,16 +3140,16 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F101" s="18">
-        <v>30000</v>
+        <v>31249</v>
       </c>
       <c r="G101" s="18">
         <v>781242</v>
@@ -3163,19 +3163,19 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F102" s="18">
-        <v>30000</v>
+        <v>85600</v>
       </c>
       <c r="G102" s="18">
-        <v>781242</v>
+        <v>2140000</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
@@ -3186,16 +3186,16 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="F103" s="18">
-        <v>30000</v>
+        <v>31249</v>
       </c>
       <c r="G103" s="18">
         <v>781242</v>
@@ -3209,19 +3209,19 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="F104" s="18">
-        <v>30000</v>
+        <v>85600</v>
       </c>
       <c r="G104" s="18">
-        <v>781242</v>
+        <v>2140000</v>
       </c>
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
@@ -3232,16 +3232,16 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F105" s="18">
-        <v>30000</v>
+        <v>31249</v>
       </c>
       <c r="G105" s="18">
         <v>781242</v>
@@ -3255,19 +3255,19 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F106" s="18">
-        <v>30000</v>
+        <v>85600</v>
       </c>
       <c r="G106" s="18">
-        <v>781242</v>
+        <v>2140000</v>
       </c>
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
@@ -3278,16 +3278,16 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F107" s="18">
-        <v>30000</v>
+        <v>31249</v>
       </c>
       <c r="G107" s="18">
         <v>781242</v>
@@ -3301,19 +3301,19 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F108" s="18">
-        <v>30000</v>
+        <v>85600</v>
       </c>
       <c r="G108" s="18">
-        <v>781242</v>
+        <v>2140000</v>
       </c>
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
@@ -3324,16 +3324,16 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F109" s="18">
-        <v>30000</v>
+        <v>31249</v>
       </c>
       <c r="G109" s="18">
         <v>781242</v>
@@ -3347,19 +3347,19 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F110" s="18">
-        <v>30000</v>
+        <v>85600</v>
       </c>
       <c r="G110" s="18">
-        <v>781242</v>
+        <v>2140000</v>
       </c>
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
@@ -3370,16 +3370,16 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F111" s="18">
-        <v>30000</v>
+        <v>31249</v>
       </c>
       <c r="G111" s="18">
         <v>781242</v>
@@ -3393,19 +3393,19 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F112" s="18">
-        <v>30000</v>
+        <v>85600</v>
       </c>
       <c r="G112" s="18">
-        <v>781242</v>
+        <v>2140000</v>
       </c>
       <c r="H112" s="19"/>
       <c r="I112" s="19"/>
@@ -3416,16 +3416,16 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F113" s="18">
-        <v>30000</v>
+        <v>31249</v>
       </c>
       <c r="G113" s="18">
         <v>781242</v>
@@ -3439,19 +3439,19 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F114" s="18">
-        <v>30000</v>
+        <v>65626</v>
       </c>
       <c r="G114" s="18">
-        <v>781242</v>
+        <v>2140000</v>
       </c>
       <c r="H114" s="19"/>
       <c r="I114" s="19"/>
@@ -3462,16 +3462,16 @@
         <v>8</v>
       </c>
       <c r="C115" s="22" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D115" s="23" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E115" s="22" t="s">
         <v>71</v>
       </c>
       <c r="F115" s="24">
-        <v>30000</v>
+        <v>23958</v>
       </c>
       <c r="G115" s="24">
         <v>781242</v>
